--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_SWT_ShortResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_SWT_ShortResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="15">
   <si>
     <t/>
   </si>
@@ -64,13 +64,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -103,10 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -129,25 +141,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -172,25 +184,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" t="s" s="4">
         <v>14</v>
       </c>
     </row>
